--- a/100% FINISHED MODULES/Single Unit Cost (Worst case Cost).xlsx
+++ b/100% FINISHED MODULES/Single Unit Cost (Worst case Cost).xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evan.gobien\Documents\GitHub\Certain-Synths-VCO\100% FINISHED MODULES\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6183463D-231B-41F4-B93F-C5D5E775A6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="23880" yWindow="-10680" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,10 +24,49 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>TOTAL COST</t>
+  </si>
+  <si>
+    <t>Power Supply</t>
+  </si>
+  <si>
+    <t>VCO</t>
+  </si>
+  <si>
+    <t>Single Cost</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -46,13 +91,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +385,351 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2">
+        <f>SUM(D3:D72)</f>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <f>B3*C3</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D51" si="0">B4*C4</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>